--- a/docs/VF-VitalsUnits.xlsx
+++ b/docs/VF-VitalsUnits.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9</t>
+    <t>0.2.10</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsUnits.xlsx
+++ b/docs/VF-VitalsUnits.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.10</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -112,6 +112,93 @@
   </si>
   <si>
     <t>http://unitsofmeasure.org</t>
+  </si>
+  <si>
+    <t>4500634</t>
+  </si>
+  <si>
+    <t>BLOOD PRESSURE</t>
+  </si>
+  <si>
+    <t>equivalent</t>
+  </si>
+  <si>
+    <t>mm[Hg]</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>BODY MASS INDEX</t>
+  </si>
+  <si>
+    <t>kg/m2</t>
+  </si>
+  <si>
+    <t>4688719</t>
+  </si>
+  <si>
+    <t>CENTRAL VENOUS PRESSURE</t>
+  </si>
+  <si>
+    <t>cm[H2O]</t>
+  </si>
+  <si>
+    <t>4688720</t>
+  </si>
+  <si>
+    <t>CIRCUMFERENCE/GIRTH</t>
+  </si>
+  <si>
+    <t>[in_i]</t>
+  </si>
+  <si>
+    <t>4688724</t>
+  </si>
+  <si>
+    <t>HEIGHT</t>
+  </si>
+  <si>
+    <t>[lb_av]</t>
+  </si>
+  <si>
+    <t>4500636</t>
+  </si>
+  <si>
+    <t>PULSE</t>
+  </si>
+  <si>
+    <t>/min</t>
+  </si>
+  <si>
+    <t>4500637</t>
+  </si>
+  <si>
+    <t>PULSE OXIMETRY</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>4688725</t>
+  </si>
+  <si>
+    <t>RESPIRATION</t>
+  </si>
+  <si>
+    <t>4500638</t>
+  </si>
+  <si>
+    <t>TEMPERATURE</t>
+  </si>
+  <si>
+    <t>[degF]</t>
+  </si>
+  <si>
+    <t>4500639</t>
+  </si>
+  <si>
+    <t>WEIGHT</t>
   </si>
 </sst>
 </file>
@@ -380,7 +467,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -420,6 +507,176 @@
         <v>31</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/VF-VitalsUnits.xlsx
+++ b/docs/VF-VitalsUnits.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2-ci</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsUnits.xlsx
+++ b/docs/VF-VitalsUnits.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2-ci</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsUnits.xlsx
+++ b/docs/VF-VitalsUnits.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -159,46 +159,46 @@
     <t>HEIGHT</t>
   </si>
   <si>
+    <t>4500636</t>
+  </si>
+  <si>
+    <t>PULSE</t>
+  </si>
+  <si>
+    <t>/min</t>
+  </si>
+  <si>
+    <t>4500637</t>
+  </si>
+  <si>
+    <t>PULSE OXIMETRY</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>4688725</t>
+  </si>
+  <si>
+    <t>RESPIRATION</t>
+  </si>
+  <si>
+    <t>4500638</t>
+  </si>
+  <si>
+    <t>TEMPERATURE</t>
+  </si>
+  <si>
+    <t>[degF]</t>
+  </si>
+  <si>
+    <t>4500639</t>
+  </si>
+  <si>
+    <t>WEIGHT</t>
+  </si>
+  <si>
     <t>[lb_av]</t>
-  </si>
-  <si>
-    <t>4500636</t>
-  </si>
-  <si>
-    <t>PULSE</t>
-  </si>
-  <si>
-    <t>/min</t>
-  </si>
-  <si>
-    <t>4500637</t>
-  </si>
-  <si>
-    <t>PULSE OXIMETRY</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>4688725</t>
-  </si>
-  <si>
-    <t>RESPIRATION</t>
-  </si>
-  <si>
-    <t>4500638</t>
-  </si>
-  <si>
-    <t>TEMPERATURE</t>
-  </si>
-  <si>
-    <t>[degF]</t>
-  </si>
-  <si>
-    <t>4500639</t>
-  </si>
-  <si>
-    <t>WEIGHT</t>
   </si>
 </sst>
 </file>
@@ -586,95 +586,95 @@
         <v>35</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="C8" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="C8" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="E8" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="C9" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>54</v>
-      </c>
       <c r="E9" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="B10" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="C10" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="C11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>59</v>
-      </c>
       <c r="E11" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="C12" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="E12" t="s" s="2">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/docs/VF-VitalsUnits.xlsx
+++ b/docs/VF-VitalsUnits.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsUnits.xlsx
+++ b/docs/VF-VitalsUnits.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsUnits.xlsx
+++ b/docs/VF-VitalsUnits.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.5</t>
+    <t>0.3.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,7 +72,10 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>VA Digital Services (http://va.gov)</t>
+  </si>
+  <si>
+    <t>John Moehrke (himself) (John.Moehrke@va.gov)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -427,28 +430,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>7</v>
@@ -456,7 +459,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2"/>
     </row>
@@ -475,206 +478,206 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s" s="1">
         <v>28</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="E7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/docs/VF-VitalsUnits.xlsx
+++ b/docs/VF-VitalsUnits.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsUnits.xlsx
+++ b/docs/VF-VitalsUnits.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
